--- a/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01345026578603148</v>
+        <v>0.01362100889546914</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00679449747483972</v>
+        <v>0.006743921510793868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006902832243660778</v>
+        <v>0.006890874212148394</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02271231164972759</v>
+        <v>0.02340764794299823</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0187302282061582</v>
+        <v>0.01814911237514305</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01958918755351859</v>
+        <v>0.02085423721925637</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01861340414459136</v>
+        <v>0.01805362543280194</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02243969768738056</v>
+        <v>0.02218982837780799</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01601292930043405</v>
+        <v>0.01601681146998593</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01717982852393005</v>
+        <v>0.01787378743220789</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01046344054933956</v>
+        <v>0.01061302492433199</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05150438460500765</v>
+        <v>0.05292092745947881</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04765506951494532</v>
+        <v>0.04427927817756411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04269963983825935</v>
+        <v>0.04082521593391625</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01048588315369312</v>
+        <v>0.01066567607135442</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07646817146432942</v>
+        <v>0.07484925674556485</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0731145115776021</v>
+        <v>0.07105422086878453</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07212556506671933</v>
+        <v>0.07137478405335701</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0466459788075769</v>
+        <v>0.04618484550154534</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05451022019800153</v>
+        <v>0.05578929860742247</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04619083435570243</v>
+        <v>0.04728991594158834</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04733275018707516</v>
+        <v>0.04753471050909091</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02433217468252778</v>
+        <v>0.02522883714647114</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003845848269975732</v>
+        <v>0.003957098017256042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01539390775912539</v>
+        <v>0.01468727225609141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006019194848944046</v>
+        <v>0.005974410526251198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001723762201033145</v>
+        <v>0.001713561337076472</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03996254140701035</v>
+        <v>0.0400180667786421</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03446294240521805</v>
+        <v>0.03505942089801035</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01686665993567833</v>
+        <v>0.01664963662137978</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.009609740044275943</v>
+        <v>0.009834442772201605</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02321189348814756</v>
+        <v>0.02331996430220958</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02896680585269668</v>
+        <v>0.02898040089747574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01300642276997357</v>
+        <v>0.01375267515486132</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.007219026979455926</v>
+        <v>0.007346546916913186</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0243419117049271</v>
+        <v>0.02256146135871205</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05195622080851352</v>
+        <v>0.05390882725511407</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02832846289185288</v>
+        <v>0.02629771582504304</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01876660073130014</v>
+        <v>0.02032897191609312</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08057449624840778</v>
+        <v>0.08188387318574722</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07321174474950513</v>
+        <v>0.07426504261175799</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04820614129353581</v>
+        <v>0.04817214276113767</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02842414769550628</v>
+        <v>0.02892031362127299</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04670333748100569</v>
+        <v>0.0467333280498563</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05641845325043825</v>
+        <v>0.05556589565865757</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03252488901668477</v>
+        <v>0.03235519367223894</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01979269491571691</v>
+        <v>0.01963015468823433</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003057070603037935</v>
+        <v>0.003018119321959875</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006166840722145607</v>
+        <v>0.006245344307216016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01042117862756046</v>
+        <v>0.0108370203231835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007474673722838407</v>
+        <v>0.007946182104362936</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01104802469172872</v>
+        <v>0.01129292276777631</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03698345817150558</v>
+        <v>0.03658256819550814</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01673775042294982</v>
+        <v>0.01750618173937591</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03072287327612677</v>
+        <v>0.03107735569828109</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01009236772201747</v>
+        <v>0.009246698740484378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02579606505573368</v>
+        <v>0.02455095669760561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01757324568445086</v>
+        <v>0.0182315108433731</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0231645532488072</v>
+        <v>0.02306977452094368</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03024465481587466</v>
+        <v>0.02991097031510943</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03229296057822952</v>
+        <v>0.03462591704120525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04255053090425708</v>
+        <v>0.03992841419500621</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03179445040753699</v>
+        <v>0.03364759512918044</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04313815435736475</v>
+        <v>0.04528673033850408</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08737239431499552</v>
+        <v>0.09090710824203306</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05716585833906294</v>
+        <v>0.06014403129462102</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06577451871912982</v>
+        <v>0.06362406970532984</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02891254500418787</v>
+        <v>0.02953703594424732</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05429032576353632</v>
+        <v>0.05444444484864158</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04271609058135675</v>
+        <v>0.04307335202716778</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04511337977488485</v>
+        <v>0.04376506827475333</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007712741272053647</v>
+        <v>0.009248147857835736</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01563030135731255</v>
+        <v>0.01829450623969057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007351689435323721</v>
+        <v>0.00649031442310667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01531451074903795</v>
+        <v>0.01406805450189675</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02538289803341847</v>
+        <v>0.02521310492571303</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05116224756936854</v>
+        <v>0.04828531384005186</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02482998343452049</v>
+        <v>0.02444593231215003</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03414487707983805</v>
+        <v>0.03323129222824665</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01972176790062743</v>
+        <v>0.02005821172776675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03961060925564747</v>
+        <v>0.03907985923720091</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01815751637343719</v>
+        <v>0.01752724881014852</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02727576565018507</v>
+        <v>0.02827655687936605</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03818531462181057</v>
+        <v>0.04280472983059332</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05760120941562072</v>
+        <v>0.05924815158896227</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03784097465946658</v>
+        <v>0.03666821549524267</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05833309169849598</v>
+        <v>0.05529176581117949</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06517331036967369</v>
+        <v>0.06409656352292091</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1042178256130502</v>
+        <v>0.1034752265700755</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06703642896969407</v>
+        <v>0.06412440381183297</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07657583463484333</v>
+        <v>0.07540188349030615</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04496340390680977</v>
+        <v>0.04571489351526774</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07103882063186599</v>
+        <v>0.07099772046202511</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04350453972614983</v>
+        <v>0.04371672397511175</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05477425529700524</v>
+        <v>0.05659149453123351</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.05823570451766166</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03477885830211433</v>
+        <v>0.03477885830211432</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.072477701139308</v>
@@ -1252,38 +1252,38 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01955169026483079</v>
+        <v>0.01672144760776631</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01607232377531601</v>
+        <v>0.01591478224482926</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06315614096338865</v>
+        <v>0.05929498029480917</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05788814705742981</v>
+        <v>0.0639715774658903</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02980845909047713</v>
+        <v>0.03069497130037671</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02052226424625523</v>
+        <v>0.0215140075935031</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04884309393802617</v>
+        <v>0.04909419977756126</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04632750527306547</v>
+        <v>0.04787284054697215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01637295244021022</v>
+        <v>0.01559023538411074</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01375747736013953</v>
+        <v>0.01353132711535368</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08204374292855131</v>
+        <v>0.08299169500317258</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07366160714686715</v>
+        <v>0.07128368916676132</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.02102384547677202</v>
+        <v>0.01749796125475261</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1520409207771777</v>
+        <v>0.1526537423080496</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1458775464722077</v>
+        <v>0.1434944572488812</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1040120716195346</v>
+        <v>0.1011915717260443</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05119912744010584</v>
+        <v>0.05104415663887246</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.102789296347791</v>
+        <v>0.1037904698283938</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09733838736926065</v>
+        <v>0.0954224254804892</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05124420053377459</v>
+        <v>0.05282842324922426</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03183328212387171</v>
+        <v>0.03152327746071251</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.02026633658114388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02500705472055541</v>
+        <v>0.0250070547205554</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.03696143731648211</v>
@@ -1361,7 +1361,7 @@
         <v>0.04869018784635527</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05420049676644657</v>
+        <v>0.05420049676644655</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02902912868229306</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007041234046099435</v>
+        <v>0.007180485892403669</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007633202616403141</v>
+        <v>0.007749299919502497</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006914504186479932</v>
+        <v>0.00753959851717009</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01369132184507553</v>
+        <v>0.01303429276503588</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01874859193324935</v>
+        <v>0.01854121065961293</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03532636841774585</v>
+        <v>0.03450018674013561</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0253129434998563</v>
+        <v>0.02768648514408252</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03679551549414383</v>
+        <v>0.03771869019383686</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01719376690822241</v>
+        <v>0.01602739739529966</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02613810756939113</v>
+        <v>0.02585020379653372</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02107096641864089</v>
+        <v>0.02004643126427393</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02912603522619813</v>
+        <v>0.02958409876577973</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04267079037833317</v>
+        <v>0.0413631411365677</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04756979577515607</v>
+        <v>0.04565958536741221</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04535771022922374</v>
+        <v>0.04256449901001353</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0425915143316118</v>
+        <v>0.04351857033809076</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06335620992973458</v>
+        <v>0.06426747964226223</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09369036535053996</v>
+        <v>0.08783402745772308</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07902265228183016</v>
+        <v>0.08077069755988306</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07494028634705174</v>
+        <v>0.07523328614063979</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0464170167140214</v>
+        <v>0.04651394641393525</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06033226458888504</v>
+        <v>0.05981794829944453</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0568759365561914</v>
+        <v>0.05266557210242205</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05216158062534717</v>
+        <v>0.05319518775873715</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.0151695293030269</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02172681701603915</v>
+        <v>0.02172681701603916</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.03805182131223937</v>
@@ -1509,7 +1509,7 @@
         <v>0.02488581751355161</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.03511634158484503</v>
+        <v>0.03511634158484504</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02714990435633272</v>
+        <v>0.02633291849505182</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.005954432791225968</v>
+        <v>0.006034745738517423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.007600200931908744</v>
+        <v>0.007940719254063309</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01286731286497379</v>
+        <v>0.01243964937918638</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02476288696953748</v>
+        <v>0.02529573021896943</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03219702136789</v>
+        <v>0.03277967935373608</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02219734216122311</v>
+        <v>0.02166675792333931</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03591372630216097</v>
+        <v>0.03619955537499355</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02888750467470468</v>
+        <v>0.02914917085353851</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02127436691584321</v>
+        <v>0.02172349624753821</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01709724266481494</v>
+        <v>0.0166763625311896</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02737346666991674</v>
+        <v>0.02696942608949199</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05910395778557657</v>
+        <v>0.05906373353919547</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0253337301636306</v>
+        <v>0.02498301057662537</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02842453788554173</v>
+        <v>0.02826892315673758</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03452266131908847</v>
+        <v>0.03604777618045502</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05417451779808392</v>
+        <v>0.05528413267599645</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06528435350682016</v>
+        <v>0.06579070520785553</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05160658773220875</v>
+        <v>0.05058512012887255</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06085827490330274</v>
+        <v>0.06153582953200359</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05164515360858728</v>
+        <v>0.05178615417487953</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04052460400699375</v>
+        <v>0.04247794659119613</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03369045204482785</v>
+        <v>0.03366999349726372</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04432316234453456</v>
+        <v>0.04382734997919509</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02975820452110987</v>
+        <v>0.03013845338149992</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.006836516133723771</v>
+        <v>0.007224411756816369</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.001042018335966474</v>
+        <v>0.00104322266713539</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01808546334229278</v>
+        <v>0.01797525279457965</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04856254827618571</v>
+        <v>0.04811565774606746</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04464434530716646</v>
+        <v>0.04604460695295413</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02513924728174065</v>
+        <v>0.02545351443901119</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.09105377831047959</v>
+        <v>0.08963006627991019</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04410738181258889</v>
+        <v>0.0434497156295997</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02890266897775226</v>
+        <v>0.02873716527041192</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01452465047312927</v>
+        <v>0.01460584365702173</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05783572452339515</v>
+        <v>0.05741705345246902</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05702031672449063</v>
+        <v>0.05892144050162227</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02483545535639757</v>
+        <v>0.02716805664491954</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01426862806504551</v>
+        <v>0.01444380412786843</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03794993432952371</v>
+        <v>0.03832643772451788</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0855104448736738</v>
+        <v>0.08583193777841938</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07923828893944303</v>
+        <v>0.08070210801882842</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05219293600259418</v>
+        <v>0.05524902434008094</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.126802229475392</v>
+        <v>0.1259012553960653</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0666457745913205</v>
+        <v>0.06670669147651753</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05010419228099815</v>
+        <v>0.04905600537815451</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03062830791464102</v>
+        <v>0.03038909095738222</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07965231747229633</v>
+        <v>0.07821140409120557</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>0.0259051542617142</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.037116320479046</v>
+        <v>0.03711632047904599</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02378032746097833</v>
+        <v>0.02380779310962127</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01608019389557383</v>
+        <v>0.01638187923073816</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.009734319762949622</v>
+        <v>0.00961564697355672</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01486334504150083</v>
+        <v>0.01467415717595197</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0435888668247593</v>
+        <v>0.04386643182925015</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04977522935418879</v>
+        <v>0.05081849636731924</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03139640932622004</v>
+        <v>0.03168091753870269</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.04832328794271163</v>
+        <v>0.04851603351319984</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03571860583408898</v>
+        <v>0.03532084317272669</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.0347314749895235</v>
+        <v>0.03515344848248157</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.02216109431042434</v>
+        <v>0.02195138616145598</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.03359035837087793</v>
+        <v>0.03355042487460858</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03540438034759337</v>
+        <v>0.0353963372602435</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02613706549615682</v>
+        <v>0.02659922339948654</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01792295999814707</v>
+        <v>0.01758910417881673</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.022909498985676</v>
+        <v>0.02297407558477227</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05941075619114513</v>
+        <v>0.059006248536433</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06629202079529145</v>
+        <v>0.06752331356736531</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04490138375912393</v>
+        <v>0.04585237790008892</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06037150712013913</v>
+        <v>0.061040983089649</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04523692295307235</v>
+        <v>0.04522529726698722</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04517671547547077</v>
+        <v>0.04542755290609819</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02998434932203515</v>
+        <v>0.02995431307291747</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.04093673179298146</v>
+        <v>0.04089374532262288</v>
       </c>
     </row>
     <row r="31">
@@ -2144,40 +2144,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3672</v>
+        <v>3719</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1972</v>
+        <v>1957</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5924</v>
+        <v>6106</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5251</v>
+        <v>5088</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5655</v>
+        <v>6021</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5883</v>
+        <v>5706</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11979</v>
+        <v>11846</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9136</v>
+        <v>9138</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10007</v>
+        <v>10411</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6643</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14061</v>
+        <v>14448</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13830</v>
+        <v>12850</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12543</v>
+        <v>11993</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3343</v>
+        <v>3401</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19946</v>
+        <v>19524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20497</v>
+        <v>19920</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20823</v>
+        <v>20606</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14743</v>
+        <v>14597</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29100</v>
+        <v>29783</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>26354</v>
+        <v>26981</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>27570</v>
+        <v>27687</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>15449</v>
+        <v>16018</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1896</v>
+        <v>1951</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7782</v>
+        <v>7425</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3025</v>
+        <v>3003</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20139</v>
+        <v>20167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18015</v>
+        <v>18327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8823</v>
+        <v>8709</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5231</v>
+        <v>5353</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>23143</v>
+        <v>23251</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>29785</v>
+        <v>29799</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13340</v>
+        <v>14106</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7753</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12002</v>
+        <v>11124</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26265</v>
+        <v>27252</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14237</v>
+        <v>13217</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9940</v>
+        <v>10767</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>40605</v>
+        <v>41265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38270</v>
+        <v>38821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25216</v>
+        <v>25198</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15472</v>
+        <v>15743</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>46564</v>
+        <v>46594</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>58013</v>
+        <v>57136</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>33359</v>
+        <v>33185</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>21257</v>
+        <v>21083</v>
       </c>
     </row>
     <row r="12">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3320</v>
+        <v>3452</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2358</v>
+        <v>2507</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3706</v>
+        <v>3788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12612</v>
+        <v>12475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5629</v>
+        <v>5887</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10949</v>
+        <v>11075</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6603</v>
+        <v>6050</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17132</v>
+        <v>16305</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11508</v>
+        <v>11939</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>15564</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="15">
@@ -2548,40 +2548,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9643</v>
+        <v>9537</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10434</v>
+        <v>11188</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13555</v>
+        <v>12720</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10031</v>
+        <v>10616</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14469</v>
+        <v>15190</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29796</v>
+        <v>31001</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19225</v>
+        <v>20227</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23441</v>
+        <v>22674</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18916</v>
+        <v>19325</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36056</v>
+        <v>36159</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>27974</v>
+        <v>28208</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>30311</v>
+        <v>29405</v>
       </c>
     </row>
     <row r="16">
@@ -2684,40 +2684,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2766</v>
+        <v>3317</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5845</v>
+        <v>6842</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2720</v>
+        <v>2401</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5715</v>
+        <v>5249</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9429</v>
+        <v>9366</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19796</v>
+        <v>18683</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9616</v>
+        <v>9467</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14397</v>
+        <v>14011</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14399</v>
+        <v>14645</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30140</v>
+        <v>29737</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13750</v>
+        <v>13272</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>21678</v>
+        <v>22474</v>
       </c>
     </row>
     <row r="19">
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13696</v>
+        <v>15353</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21542</v>
+        <v>22158</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14000</v>
+        <v>13566</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21767</v>
+        <v>20632</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24209</v>
+        <v>23809</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40326</v>
+        <v>40038</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25962</v>
+        <v>24834</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>32287</v>
+        <v>31792</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32829</v>
+        <v>33378</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>54055</v>
+        <v>54023</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>32944</v>
+        <v>33104</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>43533</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="20">
@@ -2864,38 +2864,38 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3975</v>
+        <v>3400</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3417</v>
+        <v>3384</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13116</v>
+        <v>12314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12712</v>
+        <v>14048</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6516</v>
+        <v>6710</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4663</v>
+        <v>4888</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>20073</v>
+        <v>20177</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>20023</v>
+        <v>20691</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>7037</v>
+        <v>6701</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5955</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="23">
@@ -2906,38 +2906,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16680</v>
+        <v>16873</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15662</v>
+        <v>15156</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>4324</v>
+        <v>3599</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31574</v>
+        <v>31701</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>32033</v>
+        <v>31510</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22736</v>
+        <v>22119</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11633</v>
+        <v>11598</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>42244</v>
+        <v>42655</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>42071</v>
+        <v>41242</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>22025</v>
+        <v>22706</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>13780</v>
+        <v>13646</v>
       </c>
     </row>
     <row r="24">
@@ -3040,40 +3040,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1907</v>
+        <v>1945</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2091</v>
+        <v>2123</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1819</v>
+        <v>1984</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3706</v>
+        <v>3528</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5215</v>
+        <v>5157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9861</v>
+        <v>9630</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6913</v>
+        <v>7562</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9705</v>
+        <v>9948</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>9439</v>
+        <v>8798</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>14458</v>
+        <v>14298</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>11299</v>
+        <v>10750</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>15567</v>
+        <v>15811</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11556</v>
+        <v>11202</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13033</v>
+        <v>12510</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11935</v>
+        <v>11200</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11530</v>
+        <v>11781</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17622</v>
+        <v>17876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>26153</v>
+        <v>24518</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>21582</v>
+        <v>22060</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19766</v>
+        <v>19843</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>25481</v>
+        <v>25534</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>33371</v>
+        <v>33087</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>30499</v>
+        <v>28241</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>27878</v>
+        <v>28431</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>16698</v>
+        <v>16195</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3947</v>
+        <v>4000</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4990</v>
+        <v>5214</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>9250</v>
+        <v>8943</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15804</v>
+        <v>16144</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>22340</v>
+        <v>22744</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>15345</v>
+        <v>14978</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>27727</v>
+        <v>27948</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>36203</v>
+        <v>36531</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>28862</v>
+        <v>29471</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>23045</v>
+        <v>22477</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>40812</v>
+        <v>40210</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>36351</v>
+        <v>36326</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16791</v>
+        <v>16558</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18662</v>
+        <v>18560</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>24818</v>
+        <v>25914</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>34575</v>
+        <v>35283</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>45298</v>
+        <v>45649</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>35675</v>
+        <v>34969</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>46986</v>
+        <v>47509</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>64724</v>
+        <v>64901</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>54977</v>
+        <v>57627</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>45410</v>
+        <v>45382</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>66083</v>
+        <v>65344</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>22104</v>
+        <v>22386</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5312</v>
+        <v>5613</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>14434</v>
+        <v>14346</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>38049</v>
+        <v>37699</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>36676</v>
+        <v>37827</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>20769</v>
+        <v>21029</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>75575</v>
+        <v>74393</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>67321</v>
+        <v>66317</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>46201</v>
+        <v>45936</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>23308</v>
+        <v>23439</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>94161</v>
+        <v>93479</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>42353</v>
+        <v>43765</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>19296</v>
+        <v>21109</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>11109</v>
+        <v>11246</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>30287</v>
+        <v>30587</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>66998</v>
+        <v>67250</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>65096</v>
+        <v>66298</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>43120</v>
+        <v>45645</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>105247</v>
+        <v>104499</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>101721</v>
+        <v>101814</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>80091</v>
+        <v>78416</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>49151</v>
+        <v>48767</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>129680</v>
+        <v>127334</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>77893</v>
+        <v>77983</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>54981</v>
+        <v>56013</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>33042</v>
+        <v>32639</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>52475</v>
+        <v>51807</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>147295</v>
+        <v>148233</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>176460</v>
+        <v>180158</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>111286</v>
+        <v>112294</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>180315</v>
+        <v>181035</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>237697</v>
+        <v>235050</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>241881</v>
+        <v>244820</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>153773</v>
+        <v>152318</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>243930</v>
+        <v>243640</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>115968</v>
+        <v>115942</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>89368</v>
+        <v>90948</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>60837</v>
+        <v>59704</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>80881</v>
+        <v>81109</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>200761</v>
+        <v>199394</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>235014</v>
+        <v>239379</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>159155</v>
+        <v>162526</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>225273</v>
+        <v>227771</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>301039</v>
+        <v>300962</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>314625</v>
+        <v>316372</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>208058</v>
+        <v>207850</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>297279</v>
+        <v>296967</v>
       </c>
     </row>
     <row r="40">
